--- a/cp1/zaritskyi_fb-01_svirshchuk_fb-01_cp1/Frequency_with_space.xlsx
+++ b/cp1/zaritskyi_fb-01_svirshchuk_fb-01_cp1/Frequency_with_space.xlsx
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1852946946155793</v>
+        <v>0.1687277178753042</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.09095432098414441</v>
+        <v>0.09280387088913836</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0738364175506131</v>
+        <v>0.07533787605844625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.07206710316704432</v>
+        <v>0.07353258278773252</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.06392655118265446</v>
+        <v>0.06522649323474324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.0471915095653855</v>
+        <v>0.04815114568919754</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.04453611647338779</v>
+        <v>0.04544175536003852</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.04430204006592046</v>
+        <v>0.04520291902481287</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.0414040414665882</v>
+        <v>0.04224598982189771</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.03884436382865607</v>
+        <v>0.0396342613140253</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.03212438081104158</v>
+        <v>0.03277762790072531</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.029955146411476</v>
+        <v>0.03056428226780419</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.0262374065471266</v>
+        <v>0.02677094241723644</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.02197190893574839</v>
+        <v>0.02241870620326616</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.02125925525795315</v>
+        <v>0.02169156076160749</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.02082237580919835</v>
+        <v>0.02124579739910132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -620,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.01895355526051188</v>
+        <v>0.01933897451219854</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01551632801401805</v>
+        <v>0.01583185148441133</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01541587417113734</v>
+        <v>0.01572935491949668</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -644,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01415641042407632</v>
+        <v>0.01444428006316109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -652,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0138891652949031</v>
+        <v>0.01417160052253909</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -660,7 +660,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.01302772620831284</v>
+        <v>0.01329264413095967</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -668,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.008696838831285875</v>
+        <v>0.008873688454922301</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -676,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.008589751244063984</v>
+        <v>0.008764423248928378</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -684,7 +684,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.00797755140914945</v>
+        <v>0.008139774372184366</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.007431689017646708</v>
+        <v>0.007582811906233048</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -700,7 +700,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.006577831353160648</v>
+        <v>0.006711591104458504</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -708,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.005542019558173674</v>
+        <v>0.005654716147366854</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -716,7 +716,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.003897798639324268</v>
+        <v>0.00397706010843363</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -724,7 +724,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.002331287297042961</v>
+        <v>0.002378693865000421</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.002281060375602605</v>
+        <v>0.002327445582543095</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -740,7 +740,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.0008263750093583179</v>
+        <v>0.0008431792887318565</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -748,7 +748,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.0001156166870891225</v>
+        <v>0.0001179677445244111</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -756,7 +756,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4.548853262522851E-05</v>
+        <v>4.64135388292765E-05</v>
       </c>
     </row>
   </sheetData>
